--- a/biology/Botanique/Potentilla_sterilis/Potentilla_sterilis.xlsx
+++ b/biology/Botanique/Potentilla_sterilis/Potentilla_sterilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Potentille faux fraisier ou Potentille stérile (Potentilla sterilis), parfois appelée Fraiserat ou Fraisier stérile, est une espèce de plantes à fleurs de la famille des Rosaceae originaire d'Europe. Elle ressemble aux fraisiers. 
 </t>
@@ -511,7 +523,9 @@
           <t>Noms scientifiques et étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Potentilla sterilis (L.) Garcke = Potentilla fragariastrum Ehrh.
 Du latin potens : puissant (propriété tonique des plantes du genre potentille)
@@ -544,11 +558,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La potentille faux fraisier est une plante vivace de 5 à 15 cm[1], stolonifère, dont le port rappelle celui du fraisier des bois (Fragaria vesca).
-Elle fleurit de février à mai. Les pétales sont blancs, espacés, échancrés en forme de cœur. Les fleurs mesurent 10 à 15 mm de diamètre[1].Les faux-fruits, appelés " fausses fraises " sont réduits. Ils sont secs et ne ressemblent pas à une fraise. Ils portent moins d'akènes que celle-ci, d'où le nom de sterilis. Mais ces akènes ont un volume légèrement supérieur, et sont de couleur blanchâtre ou jaunâtre.
-Les folioles des feuilles portent 8 à 12 dents écartées[2], la dent terminale étant plus courte que ses deux voisines (contrairement aux fraisiers).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La potentille faux fraisier est une plante vivace de 5 à 15 cm, stolonifère, dont le port rappelle celui du fraisier des bois (Fragaria vesca).
+Elle fleurit de février à mai. Les pétales sont blancs, espacés, échancrés en forme de cœur. Les fleurs mesurent 10 à 15 mm de diamètre.Les faux-fruits, appelés " fausses fraises " sont réduits. Ils sont secs et ne ressemblent pas à une fraise. Ils portent moins d'akènes que celle-ci, d'où le nom de sterilis. Mais ces akènes ont un volume légèrement supérieur, et sont de couleur blanchâtre ou jaunâtre.
+Les folioles des feuilles portent 8 à 12 dents écartées, la dent terminale étant plus courte que ses deux voisines (contrairement aux fraisiers).
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante mellifère. Elle ne possède pas de propriété médicinale particulière contrairement aux autres membres de la famille des potentilles.
 </t>
@@ -608,9 +626,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce subatlantique vivant de 0 jusqu'à 1 500 mètres d'altitude[2] qui est absente des régions méditerranéennes.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce subatlantique vivant de 0 jusqu'à 1 500 mètres d'altitude qui est absente des régions méditerranéennes.
 Elle apprécie la mi-ombre, les sols assez frais et profonds, plutôt neutres.
 On la trouve dans les bois (hêtraie-chênaie), les haies, les coupes forestières, les landes, les pelouses, le long des chemins.
 </t>
